--- a/questions.xlsx
+++ b/questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="veryeasy" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="153">
   <si>
     <t>Какой вид спорта упоминают в Дании, говоря о чрезмерно заботливых родителях?</t>
   </si>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1675,9 @@
       <c r="E4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
